--- a/htdocs/docs/Atividades PSMN - Ciclo 2016.xlsx
+++ b/htdocs/docs/Atividades PSMN - Ciclo 2016.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan1!$A$1:$G$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Plan1!$A$1:$G$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Plan1!$A$1:$G$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Plan1!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Ordem Desenvolvimento</t>
   </si>
@@ -122,6 +123,9 @@
   </si>
   <si>
     <t>Atualização da base de CEP (não prioritário) e CNAE (Prioritário por ser obrigatório)</t>
+  </si>
+  <si>
+    <t>Parcial – falta tabela de CEP</t>
   </si>
   <si>
     <t>RQF19</t>
@@ -386,19 +390,18 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.0510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -623,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -639,7 +642,9 @@
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="1" t="n">
         <v>7</v>
       </c>
@@ -649,13 +654,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
@@ -670,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -691,10 +696,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -709,13 +714,13 @@
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -730,19 +735,19 @@
     </row>
     <row r="16" s="5" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1" t="n">
@@ -751,19 +756,19 @@
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="n">
@@ -772,19 +777,19 @@
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="n">
@@ -793,13 +798,13 @@
     </row>
     <row r="19" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -810,16 +815,16 @@
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>10</v>
@@ -831,19 +836,19 @@
     </row>
     <row r="21" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="9"/>
